--- a/Totalab V0.4 20230927.xlsx
+++ b/Totalab V0.4 20230927.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labte\Project\Organic\Totalab-L\Totalab-L\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74456506-48F9-4853-B559-92FF067A04FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="序列及版本" sheetId="8" r:id="rId1"/>
@@ -14,12 +20,23 @@
     <sheet name="实际操作" sheetId="9" r:id="rId5"/>
     <sheet name="底层参数校准保存" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="275">
   <si>
     <t>波特率9600</t>
   </si>
@@ -131,7 +148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -140,7 +157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5 a1</t>
     </r>
@@ -151,7 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
@@ -160,7 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ull</t>
     </r>
@@ -171,7 +188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -180,7 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>x02</t>
     </r>
@@ -197,7 +214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>aa</t>
     </r>
@@ -206,7 +223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> b1</t>
     </r>
@@ -220,7 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -229,7 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>a b1</t>
     </r>
@@ -240,7 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x0</t>
     </r>
@@ -249,7 +266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -260,7 +277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> XX XX XX</t>
     </r>
@@ -269,7 +286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -336,7 +353,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数</t>
     </r>
@@ -344,7 +361,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -352,7 +369,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>：方向</t>
     </r>
@@ -360,7 +377,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -369,274 +386,275 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2~5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>：步数（高位在前，低位在后）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">21 31 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>蠕动泵转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>速度设置</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">21 17 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>，速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/min)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>，高位在前，低位在后</t>
+    </r>
+  </si>
+  <si>
+    <t>21 17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>蠕动泵转速范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4~</t>
+    </r>
+  </si>
+  <si>
+    <t>蠕动泵打液开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t>参数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2~5</t>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：步数（高位在前，低位在后）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">21 31 </t>
+        <family val="2"/>
+      </rPr>
+      <t>：方向</t>
+    </r>
+  </si>
+  <si>
+    <t>21 09</t>
+  </si>
+  <si>
+    <t>蠕动泵停止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 3d   </t>
+  </si>
+  <si>
+    <t>22 3d</t>
+  </si>
+  <si>
+    <t>状态指示灯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX  XX </t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蠕动泵转</t>
+        <family val="2"/>
+      </rPr>
+      <t>参数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/min</t>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>速度设置</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">21 17 </t>
-  </si>
-  <si>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0-</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1,2</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>灭</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，速度</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1-</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>常亮</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  2-</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/min)</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>闪烁</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，高位在前，低位在后</t>
-    </r>
-  </si>
-  <si>
-    <t>21 17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蠕动泵转速范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4~</t>
-    </r>
-  </si>
-  <si>
-    <t>蠕动泵打液开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：方向</t>
-    </r>
-  </si>
-  <si>
-    <t>21 09</t>
-  </si>
-  <si>
-    <t>蠕动泵停止</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 3d   </t>
-  </si>
-  <si>
-    <t>22 3d</t>
-  </si>
-  <si>
-    <t>状态指示灯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX  XX </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>常亮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闪烁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -645,7 +663,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数</t>
     </r>
@@ -653,7 +671,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -661,7 +679,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>：</t>
     </r>
@@ -669,7 +687,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>bit0-</t>
     </r>
@@ -677,7 +695,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>红色</t>
     </r>
@@ -685,7 +703,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">   bit1-</t>
     </r>
@@ -693,6 +711,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>绿</t>
@@ -701,137 +720,138 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  bit2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>蓝色</t>
+    </r>
+  </si>
+  <si>
+    <t>22 11</t>
+  </si>
+  <si>
+    <t>控制蜂鸣器一个频率发声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 04 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>，定时间隔，高位在前，低位在后</t>
+    </r>
+  </si>
+  <si>
+    <t>22 04</t>
+  </si>
+  <si>
+    <t>蜂鸣器按照音色台阶发声</t>
+  </si>
+  <si>
+    <t>22 06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1+2n(n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>色</t>
+      <t>表示第一个参数的数值</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  bit2-</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> XX XX XX XX XX……</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝色</t>
-    </r>
-  </si>
-  <si>
-    <t>22 11</t>
-  </si>
-  <si>
-    <t>控制蜂鸣器一个频率发声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 04 </t>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>参数</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1,2</t>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>：蜂鸣器音色数</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，定时间隔，高位在前，低位在后</t>
-    </r>
-  </si>
-  <si>
-    <t>22 04</t>
-  </si>
-  <si>
-    <t>蜂鸣器按照音色台阶发声</t>
-  </si>
-  <si>
-    <t>22 06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1+2n(n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示第一个参数的数值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> XX XX XX XX XX……</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：蜂鸣器音色数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -841,7 +861,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数</t>
     </r>
@@ -850,7 +870,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2,3</t>
     </r>
@@ -859,7 +879,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>：第一音色频率</t>
     </r>
@@ -868,7 +888,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 ……
@@ -879,7 +899,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>每两位一个音色频率，参数</t>
     </r>
@@ -888,7 +908,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -897,7 +917,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>有几个音色数，后边就有几组频率</t>
     </r>
@@ -956,7 +976,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -966,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>度数</t>
@@ -975,35 +996,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>0-</t>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Z</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>轴关闭</t>
     </r>
     <r>
@@ -1011,7 +1034,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1021,6 +1044,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>度数</t>
@@ -1030,233 +1054,242 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>20-</t>
+      <t>打开漏液盘，发送（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>00 14</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>打开漏液盘，发送（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>00 14</t>
+      <t>移动范围</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>复位位置</t>
+  </si>
+  <si>
+    <t>极限位置</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>轴</t>
+    </r>
+  </si>
+  <si>
+    <t>0x0cd0</t>
+  </si>
+  <si>
+    <t>0x6175</t>
+  </si>
+  <si>
+    <t>3280~24949</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>移动范围</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>轴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>复位位置</t>
-  </si>
-  <si>
-    <t>极限位置</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2040/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>X</t>
+      <t>反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4930</t>
+    </r>
+  </si>
+  <si>
+    <t>0x0bb7</t>
+  </si>
+  <si>
+    <t>0xfffff865</t>
+  </si>
+  <si>
+    <t>0x1f72</t>
+  </si>
+  <si>
+    <t>-1947~2999~5051</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Z</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轴</t>
     </r>
   </si>
   <si>
-    <t>0x0cd0</t>
-  </si>
-  <si>
-    <t>0x6175</t>
-  </si>
-  <si>
-    <t>3280~24949</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>W</t>
+    <t>0x02e0</t>
+  </si>
+  <si>
+    <t>0xffffd6ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794  ~  -10513   </t>
+  </si>
+  <si>
+    <t>06ed</t>
+  </si>
+  <si>
+    <t>cfb0</t>
+  </si>
+  <si>
+    <t>01f4</t>
+  </si>
+  <si>
+    <t>542f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0a53</t>
+  </si>
+  <si>
+    <t>直线距离mm</t>
+  </si>
+  <si>
+    <t>对应度数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2040/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4930</t>
-    </r>
-  </si>
-  <si>
-    <t>0x0bb7</t>
-  </si>
-  <si>
-    <t>0xfffff865</t>
-  </si>
-  <si>
-    <t>0x1f72</t>
-  </si>
-  <si>
-    <t>-1947~2999~5051</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴</t>
-    </r>
-  </si>
-  <si>
-    <t>0x02e0</t>
-  </si>
-  <si>
-    <t>0xffffd6ef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">794  ~  -10513   </t>
-  </si>
-  <si>
-    <t>06ed</t>
-  </si>
-  <si>
-    <t>cfb0</t>
-  </si>
-  <si>
-    <t>01f4</t>
-  </si>
-  <si>
-    <t>542f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0a53</t>
-  </si>
-  <si>
-    <t>直线距离mm</t>
-  </si>
-  <si>
-    <t>对应度数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轴长度</t>
@@ -1323,17 +1356,81 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>z</t>
-    </r>
+      <t>轴理想速度</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>轴理想速度</t>
     </r>
   </si>
@@ -1343,19 +1440,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>/s</t>
-    </r>
+      <t>轴距离home直线距离mm</t>
+    </r>
+  </si>
+  <si>
+    <t>角度</t>
   </si>
   <si>
     <r>
@@ -1363,28 +1485,79 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>/min</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>（右前）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点度数25540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/227</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>w</t>
     </r>
     <r>
@@ -1392,10 +1565,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>轴理想速度</t>
-    </r>
+      <t>角度</t>
+    </r>
+  </si>
+  <si>
+    <t>点2（右后）</t>
   </si>
   <si>
     <r>
@@ -1403,256 +1580,126 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>/s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>点度数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>27734/246.5</t>
+    </r>
+  </si>
+  <si>
+    <t>点3（左前）</t>
+  </si>
+  <si>
+    <t>246.5-207.21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轴距离home直线距离mm</t>
-    </r>
-  </si>
-  <si>
-    <t>角度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（右前）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点度数25540</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/227</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角度</t>
-    </r>
-  </si>
-  <si>
-    <t>点2（右后）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点度数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>27734/246.5</t>
-    </r>
-  </si>
-  <si>
-    <t>点3（左前）</t>
-  </si>
-  <si>
-    <t>246.5-207.21</t>
-  </si>
-  <si>
+      <t>、</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
+        <family val="2"/>
+      </rPr>
+      <t>X(ID=1)—</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>左右移动</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X(ID=1)—</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">       W(ID=2)—</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>左右移动</t>
+        <family val="2"/>
+      </rPr>
+      <t>取样针旋转</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       W(ID=2)—</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     Z(ID=3)—</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样针旋转</t>
+        <family val="2"/>
+      </rPr>
+      <t>取样针上下</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     Z(ID=3)—</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样针上下</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/
 2</t>
@@ -1662,6 +1709,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1671,7 +1719,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -1680,7 +1728,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数定义：</t>
     </r>
@@ -1689,7 +1737,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X——ID=1</t>
     </r>
@@ -1698,7 +1746,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>；</t>
     </r>
@@ -1707,7 +1755,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>W——ID=2</t>
     </r>
@@ -1716,7 +1764,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>；</t>
     </r>
@@ -1725,7 +1773,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Z——ID=3
 3</t>
@@ -1735,6 +1783,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1745,7 +1794,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>关于电机控制，通过</t>
     </r>
@@ -1755,7 +1804,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CAN</t>
     </r>
@@ -1765,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>通信连接。</t>
     </r>
@@ -1775,7 +1824,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1786,7 +1835,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>指令定义中，目标号和控制参数均为低位在前，高位在后，并且位置为带符号的数值。</t>
     </r>
@@ -1796,7 +1845,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1807,7 +1856,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>返回指令数据中，位置也为低位在前，高位在后。</t>
     </r>
@@ -1817,7 +1866,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1828,7 +1877,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>除机械臂电机外的其他控制指令，数据格式是高位在前，低位在后。</t>
     </r>
@@ -1838,7 +1887,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1850,7 +1899,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>发送</t>
     </r>
@@ -1861,7 +1910,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>返回</t>
     </r>
@@ -1872,7 +1921,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>项目</t>
     </r>
@@ -1883,7 +1932,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>命令</t>
     </r>
@@ -1894,7 +1943,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数</t>
     </r>
@@ -1905,7 +1954,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>XX</t>
     </r>
@@ -1914,7 +1963,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>参数说明</t>
     </r>
@@ -1925,7 +1974,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -1934,7 +1983,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>号</t>
     </r>
@@ -1945,7 +1994,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>目标号</t>
     </r>
@@ -1956,7 +2005,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>索引号</t>
     </r>
@@ -1967,7 +2016,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>控制参数</t>
     </r>
@@ -1977,7 +2026,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>设定电机工作模式</t>
     </r>
@@ -1999,7 +2048,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x06-home</t>
     </r>
@@ -2007,7 +2056,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>模式</t>
     </r>
@@ -2015,7 +2064,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  0x01-</t>
     </r>
@@ -2023,7 +2072,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>位置模式</t>
     </r>
@@ -2033,7 +2082,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> XX(</t>
     </r>
@@ -2041,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>索引号</t>
     </r>
@@ -2049,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00) XX(ID</t>
     </r>
@@ -2057,7 +2106,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>号</t>
     </r>
@@ -2065,7 +2114,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) XX XX XX XX(</t>
     </r>
@@ -2073,7 +2122,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>控制字</t>
     </r>
@@ -2081,7 +2130,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2091,7 +2140,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>设定</t>
     </r>
@@ -2099,7 +2148,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HOME</t>
     </r>
@@ -2107,7 +2156,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>模式</t>
     </r>
@@ -2120,7 +2169,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x07-</t>
     </r>
@@ -2128,7 +2177,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>定位在两个狭缝中间（高压电机阀模式）</t>
     </r>
@@ -2136,7 +2185,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 0x01-</t>
@@ -2145,7 +2194,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>找到光耦位置，停止（</t>
     </r>
@@ -2153,7 +2202,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>W</t>
     </r>
@@ -2161,7 +2210,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>使用此模式）</t>
     </r>
@@ -2169,7 +2218,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 102—</t>
@@ -2178,7 +2227,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>反向运行到电流堵转增长，停止（</t>
     </r>
@@ -2186,7 +2235,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Z</t>
     </r>
@@ -2194,7 +2243,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>使用此模式）</t>
     </r>
@@ -2202,7 +2251,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2212,7 +2261,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>103—</t>
     </r>
@@ -2221,7 +2270,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>正向运行到电流堵转增长，停止（</t>
     </r>
@@ -2230,7 +2279,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>X</t>
     </r>
@@ -2239,7 +2288,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>使用此模式）</t>
     </r>
@@ -2249,7 +2298,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>设定目标位置</t>
     </r>
@@ -2262,7 +2311,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>低位在前，高位在后</t>
     </r>
@@ -2272,7 +2321,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> XX(</t>
     </r>
@@ -2280,7 +2329,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>索引号</t>
     </r>
@@ -2288,7 +2337,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>00) XX(ID</t>
     </r>
@@ -2296,7 +2345,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>号</t>
     </r>
@@ -2304,7 +2353,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>) XX XX XX XX(</t>
     </r>
@@ -2312,7 +2361,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>位置</t>
     </r>
@@ -2320,7 +2369,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2330,7 +2379,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>使能电机</t>
     </r>
@@ -2343,7 +2392,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x000F-</t>
     </r>
@@ -2351,7 +2400,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>上使能（开）</t>
     </r>
@@ -2359,7 +2408,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  0x0006-</t>
     </r>
@@ -2367,7 +2416,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>去使能（关）</t>
     </r>
@@ -2377,7 +2426,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>设置速度</t>
     </r>
@@ -2390,7 +2439,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x000F-</t>
     </r>
@@ -2398,7 +2447,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>上使能（开）</t>
     </r>
@@ -2406,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  0x0007-</t>
     </r>
@@ -2414,7 +2463,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>去使能（关）</t>
     </r>
@@ -2424,7 +2473,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>执行</t>
     </r>
@@ -2434,7 +2483,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x001F-</t>
     </r>
@@ -2442,7 +2491,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>开始执行（执行</t>
     </r>
@@ -2450,7 +2499,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>home</t>
     </r>
@@ -2458,7 +2507,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>）</t>
     </r>
@@ -2466,7 +2515,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">    0x000B-</t>
     </r>
@@ -2474,7 +2523,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>急停</t>
     </r>
@@ -2482,7 +2531,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 0x003F-</t>
@@ -2491,302 +2540,307 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>立即执行（绝对位置）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    0x005F-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>立即执行（相对位置）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>当前实际位置读取</t>
+    </r>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>0x6064</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>无参数用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>补齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>索引号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>00) XX(ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX XX XX XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>清除报错</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x0080—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>清除报错</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>索引号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX(ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX XX XX XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>控制字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>读取状态</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>立即执行（绝对位置）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+      <t>索引号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX(ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    0x005F-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>立即执行（相对位置）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
+      <t>工作模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当前实际位置读取</t>
-    </r>
-  </si>
-  <si>
-    <t>0x0040</t>
-  </si>
-  <si>
-    <t>0x6064</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
+      <t>（home模式）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>无参数用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>补齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00) XX(ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX XX XX XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清除报错</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0x0080—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清除报错</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX(ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX XX XX XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控制字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>读取状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>索引号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX(ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（home模式）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>（error错误）</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0x00</t>
     </r>
@@ -2796,7 +2850,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>报错反馈</t>
     </r>
@@ -2816,7 +2870,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>XX XX XX XX(X</t>
     </r>
@@ -2825,7 +2879,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>轴初始位</t>
     </r>
@@ -2834,7 +2888,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)
 XX XX XX XX(w</t>
@@ -2844,7 +2898,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>轴初始位</t>
     </r>
@@ -2853,7 +2907,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)
 XX XX XX XX(z</t>
@@ -2863,7 +2917,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>轴初始位</t>
     </r>
@@ -2872,7 +2926,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)
 X</t>
@@ -2882,6 +2936,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中心位置角度为：</t>
@@ -2891,7 +2946,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Xzero+25540
 W</t>
@@ -2901,6 +2956,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中心位置角度为：</t>
@@ -2910,7 +2966,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Wzero+10708</t>
     </r>
@@ -3107,18 +3163,36 @@
 若Homingmode==102时，表示电机在给定的最大转数内，向一个方向找限位
 若Homingmode==0xff,表示电机位置和限位同时走，哪个先到就先处理停止返回完成</t>
   </si>
+  <si>
+    <t>Z轴抬针速度</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0022</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6081</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx xx xx xx</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度     低位在前高位在后</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="49">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3130,104 +3204,107 @@
       <b/>
       <sz val="14"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3235,200 +3312,66 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3436,15 +3379,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3459,204 +3417,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -4123,809 +3901,535 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="004932F6"/>
-      <color rgb="00FFFF00"/>
+      <color rgb="FF4932F6"/>
+      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5210,12 +4714,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,483 +4739,483 @@
     <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="147" customFormat="1" spans="1:10">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:10" ht="14.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="149" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
+      <c r="A2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="151" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="151">
+      <c r="B3" s="118">
         <v>0</v>
       </c>
-      <c r="C3" s="151">
+      <c r="C3" s="118">
         <v>0</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="151" t="s">
+      <c r="E3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="118" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A4" s="152" t="s">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A4" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="152" t="s">
+      <c r="J4" s="119" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="152" t="s">
+    <row r="5" spans="1:10" ht="14.25">
+      <c r="A5" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="152" t="s">
+      <c r="F5" s="134"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="152" t="s">
+      <c r="J5" s="119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="154" t="s">
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="155" t="s">
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25">
+      <c r="A7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="155">
+      <c r="B7" s="121">
         <v>0</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C7" s="121">
         <v>0</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="121">
         <v>85</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="121">
         <v>50</v>
       </c>
-      <c r="F7" s="155">
+      <c r="F7" s="121">
         <v>0</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="156" t="s">
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="156" t="s">
+      <c r="F8" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="156" t="s">
+      <c r="H8" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="156" t="s">
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="156" t="s">
+      <c r="E9" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156" t="s">
+      <c r="F9" s="135"/>
+      <c r="G9" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="154" t="s">
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
+      <c r="A10" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="155" t="s">
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25">
+      <c r="A11" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="121">
         <v>0</v>
       </c>
-      <c r="C11" s="155">
+      <c r="C11" s="121">
         <v>0</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="155" t="s">
+      <c r="J11" s="121" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="156" t="s">
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="156" t="s">
+      <c r="F12" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="157" t="s">
+      <c r="G12" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="156" t="s">
+      <c r="J12" s="122" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="156" t="s">
+    <row r="13" spans="1:10" ht="14.25">
+      <c r="A13" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="156" t="s">
+      <c r="C13" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="156" t="s">
+      <c r="D13" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="156" t="s">
+      <c r="F13" s="135"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="156" t="s">
+      <c r="J13" s="122" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158" t="s">
+    <row r="14" spans="1:10" ht="14.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
+      <c r="A15" s="124"/>
+      <c r="B15" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159" t="s">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="158" t="s">
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
+      <c r="A16" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="159" t="s">
+      <c r="G16" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="158" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25">
+      <c r="A17" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="158">
+      <c r="C17" s="124">
         <v>0</v>
       </c>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="159" t="s">
+      <c r="G17" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="158" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25">
+      <c r="A18" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="158">
+      <c r="C18" s="124">
         <v>0</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="159" t="s">
+      <c r="G18" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-    </row>
-    <row r="19" ht="27" spans="1:10">
-      <c r="A19" s="158" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.5">
+      <c r="A19" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="158">
+      <c r="C19" s="124">
         <v>1</v>
       </c>
-      <c r="D19" s="160" t="s">
+      <c r="D19" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="E19" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="161" t="s">
+      <c r="G19" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-    </row>
-    <row r="20" ht="27" spans="1:10">
-      <c r="A20" s="158" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5">
+      <c r="A20" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="159" t="s">
+      <c r="F20" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="159" t="s">
+      <c r="G20" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5728,1190 +5232,1188 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H12:H13"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="113" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="113" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="113" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="113" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="113" customWidth="1"/>
-    <col min="6" max="6" width="52.0583333333333" style="113" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="113"/>
+    <col min="1" max="1" width="5.375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="90" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="90" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="90" customWidth="1"/>
+    <col min="6" max="6" width="52" style="90" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:7">
-      <c r="A1" s="131"/>
-      <c r="B1" s="132" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="107"/>
+      <c r="B1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="108" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="25.5" spans="1:7">
-      <c r="A2" s="131">
+    <row r="2" spans="1:8" ht="25.5">
+      <c r="A2" s="107">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="134">
+      <c r="D2" s="110">
         <v>5</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="134" t="s">
+      <c r="G2" s="110" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="131">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="134">
+      <c r="D3" s="110">
         <v>2</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="102" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:7">
-      <c r="A4" s="131">
+    <row r="4" spans="1:8">
+      <c r="A4" s="107">
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="134">
+      <c r="D4" s="110">
         <v>1</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:7">
-      <c r="A5" s="131">
+    <row r="5" spans="1:8">
+      <c r="A5" s="107">
         <v>4</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="134">
+      <c r="D5" s="110">
         <v>0</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="110" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:7">
-      <c r="A6" s="131">
+    <row r="6" spans="1:8" ht="25.5">
+      <c r="A6" s="107">
         <v>5</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="110">
         <v>2</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="110" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:7">
-      <c r="A7" s="136">
+    <row r="7" spans="1:8">
+      <c r="A7" s="138">
         <v>6</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="110">
         <v>2</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="134" t="s">
+      <c r="G7" s="110" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" ht="51" spans="1:7">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138" t="s">
+    <row r="8" spans="1:8" ht="51">
+      <c r="A8" s="139"/>
+      <c r="B8" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:7">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138" t="s">
+    <row r="9" spans="1:8" ht="51">
+      <c r="A9" s="139"/>
+      <c r="B9" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="139" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:7">
-      <c r="A10" s="137"/>
-      <c r="B10" s="140" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="139"/>
+      <c r="B10" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:7">
-      <c r="A11" s="137"/>
-      <c r="B11" s="140" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="139"/>
+      <c r="B11" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="95" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:7">
-      <c r="A12" s="137"/>
-      <c r="B12" s="140" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="139"/>
+      <c r="B12" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="95" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:7">
-      <c r="A13" s="137"/>
-      <c r="B13" s="140" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="139"/>
+      <c r="B13" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="95" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="143"/>
-      <c r="B14" s="140" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="140"/>
+      <c r="B14" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="141" t="s">
+      <c r="C14" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="95" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" ht="42.75" spans="1:7">
-      <c r="A15" s="144">
+    <row r="15" spans="1:8" ht="42.75">
+      <c r="A15" s="72">
         <v>7</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="72">
         <v>2</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="146" t="s">
+      <c r="F15" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="144"/>
+      <c r="G15" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:A14"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="113"/>
-    <col min="2" max="2" width="22.0166666666667" style="113" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="113" customWidth="1"/>
-    <col min="4" max="4" width="25.575" style="113" customWidth="1"/>
-    <col min="5" max="5" width="20.8583333333333" style="113" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="113" customWidth="1"/>
-    <col min="7" max="7" width="23.4583333333333" style="113" customWidth="1"/>
-    <col min="8" max="10" width="12.625" style="113"/>
-    <col min="11" max="11" width="9" style="113"/>
-    <col min="12" max="14" width="12.625" style="113"/>
-    <col min="15" max="16384" width="9" style="113"/>
+    <col min="1" max="1" width="9" style="90"/>
+    <col min="2" max="2" width="22" style="90" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="90" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="90" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="90" customWidth="1"/>
+    <col min="8" max="10" width="12.625" style="90"/>
+    <col min="11" max="11" width="9" style="90"/>
+    <col min="12" max="14" width="12.625" style="90"/>
+    <col min="15" max="16384" width="9" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" ht="15" spans="1:16">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-    </row>
-    <row r="3" ht="15" spans="2:7">
-      <c r="B3" s="115"/>
-      <c r="C3" s="116" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="118" t="s">
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="95">
         <v>21600</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="96" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="118" t="s">
+    <row r="5" spans="1:16">
+      <c r="B5" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="129" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="2:7">
-      <c r="B6" s="122" t="s">
+    <row r="6" spans="1:16">
+      <c r="B6" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="99">
         <v>11300</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="2:7">
-      <c r="B10" s="115"/>
-      <c r="C10" s="116" t="s">
+    <row r="10" spans="1:16" ht="15">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="117"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="118" t="s">
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="95">
         <f>G11</f>
         <v>51395</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="96">
         <f>HEX2DEC(F11)-HEX2DEC(E11)</f>
         <v>51395</v>
       </c>
-      <c r="H11" s="113" t="str">
+      <c r="H11" s="90" t="str">
         <f>DEC2HEX(G11)</f>
         <v>C8C3</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="118" t="s">
+    <row r="12" spans="1:16">
+      <c r="B12" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="97">
         <v>21036</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="125" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="96">
         <f>HEX2DEC(F12)-HEX2DEC(E12)</f>
         <v>21051</v>
       </c>
-      <c r="H12" s="113" t="str">
+      <c r="H12" s="90" t="str">
         <f>DEC2HEX(G12)</f>
         <v>523B</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:8">
-      <c r="B13" s="122" t="s">
+    <row r="13" spans="1:16">
+      <c r="B13" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="99">
         <v>18958</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="99">
         <v>5461</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="100">
         <f>HEX2DEC(F13)-HEX2DEC(E13)</f>
         <v>18958</v>
       </c>
-      <c r="H13" s="113" t="str">
+      <c r="H13" s="90" t="str">
         <f>DEC2HEX(G13)</f>
         <v>4A0E</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="126"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93" t="s">
+    <row r="16" spans="1:16">
+      <c r="D16" s="102"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="90">
         <v>120.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="119" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="128">
-        <v>31.9966</v>
-      </c>
-      <c r="D18" s="92">
+      <c r="C18" s="104">
+        <v>31.996600000000001</v>
+      </c>
+      <c r="D18" s="72">
         <v>3600</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="90">
         <v>167.5</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:4">
-      <c r="A19" s="119"/>
-      <c r="B19" s="127" t="s">
+    <row r="19" spans="1:14" ht="27">
+      <c r="A19" s="143"/>
+      <c r="B19" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="104">
         <v>227</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="72">
         <f>C19/C18*D18</f>
-        <v>25540.2136477001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="119"/>
-      <c r="B20" s="93" t="s">
+        <v>25540.213647700068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="143"/>
+      <c r="B20" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="104">
         <v>454</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="72">
         <f>C20/C18*3600</f>
-        <v>51080.4272954001</v>
-      </c>
-      <c r="G20" s="113" t="s">
+        <v>51080.427295400135</v>
+      </c>
+      <c r="G20" s="90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="119"/>
-      <c r="B21" s="93" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="143"/>
+      <c r="B21" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="104">
         <f>F18-F17</f>
-        <v>46.71</v>
-      </c>
-      <c r="D21" s="92">
+        <v>46.709999999999994</v>
+      </c>
+      <c r="D21" s="72">
         <f>C21/C18*3600</f>
-        <v>5255.43338979766</v>
-      </c>
-      <c r="F21" s="113">
+        <v>5255.4333897976649</v>
+      </c>
+      <c r="F21" s="90">
         <v>4135</v>
       </c>
-      <c r="G21" s="113">
+      <c r="G21" s="90">
         <f>HEX2DEC(F21)</f>
         <v>16693</v>
       </c>
-      <c r="H21" s="113">
+      <c r="H21" s="90">
         <f>G21-G22</f>
         <v>10818</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="90">
         <f>H21/60</f>
         <v>180.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="119"/>
-      <c r="B22" s="93" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="143"/>
+      <c r="B22" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="104">
         <v>207.21</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="72">
         <f>C22/C18*D18</f>
-        <v>23313.60207022</v>
-      </c>
-      <c r="F22" s="113" t="s">
+        <v>23313.60207021996</v>
+      </c>
+      <c r="F22" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="113">
+      <c r="G22" s="90">
         <f>HEX2DEC(F22)</f>
         <v>5875</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="119"/>
-      <c r="B23" s="93" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="143"/>
+      <c r="B23" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="128">
+      <c r="C23" s="104">
         <v>207.21</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="72">
         <f>C23/C18*D18</f>
-        <v>23313.60207022</v>
-      </c>
-      <c r="F23" s="129"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="92"/>
-      <c r="B24" s="93" t="s">
+        <v>23313.60207021996</v>
+      </c>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="128">
+      <c r="C24" s="104">
         <v>77</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="72">
         <f>C24/C18*D18</f>
-        <v>8663.42048842689</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93" t="s">
+        <v>8663.4204884268947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="128">
+      <c r="C25" s="104">
         <v>20.69</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="73">
         <f>C25/C18*D18</f>
-        <v>2327.87233643575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="119" t="s">
+        <v>2327.8723364357461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="72">
         <v>6</v>
       </c>
-      <c r="D26" s="92"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="119"/>
-      <c r="B27" s="93" t="s">
+      <c r="D26" s="72"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="143"/>
+      <c r="B27" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="92">
-        <v>1.447</v>
-      </c>
-      <c r="D27" s="92">
+      <c r="C27" s="72">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="D27" s="72">
         <f>C27*C26*10</f>
-        <v>86.82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="119"/>
-      <c r="B28" s="93" t="s">
+        <v>86.820000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="143"/>
+      <c r="B28" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="128">
+      <c r="C28" s="104">
         <v>25.66</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="72">
         <f>C28*C26*10</f>
-        <v>1539.6</v>
+        <v>1539.6000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="119"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="143"/>
+      <c r="B29" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="128">
+      <c r="C29" s="104">
         <v>154.34</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="72">
         <f>C29*C26*10</f>
         <v>9260.4</v>
       </c>
-      <c r="M29" s="113" t="e">
+      <c r="M29" s="90" t="e">
         <f>E29/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="113" t="e">
+      <c r="N29" s="90" t="e">
         <f>M29/3600*E30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="92"/>
-      <c r="B30" s="93" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="128">
-        <v>152.36</v>
-      </c>
-      <c r="D30" s="93">
+      <c r="C30" s="104">
+        <v>152.36000000000001</v>
+      </c>
+      <c r="D30" s="73">
         <f>C30*C26*10</f>
         <v>9141.6</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92">
-        <v>177.027</v>
-      </c>
-      <c r="D31" s="92">
+    <row r="31" spans="1:14">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72">
+        <v>177.02699999999999</v>
+      </c>
+      <c r="D31" s="72">
         <f>C31*C26*10</f>
-        <v>10621.62</v>
-      </c>
-      <c r="E31" s="113">
+        <v>10621.619999999999</v>
+      </c>
+      <c r="E31" s="90">
         <f>D31+D32</f>
-        <v>10708.44</v>
-      </c>
-      <c r="M31" s="113" t="e">
+        <v>10708.439999999999</v>
+      </c>
+      <c r="M31" s="90" t="e">
         <f>L31/E30</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="92"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92">
-        <v>1.447</v>
-      </c>
-      <c r="D32" s="92">
+    <row r="32" spans="1:14">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="72">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="D32" s="72">
         <f>C32*6*10</f>
-        <v>86.82</v>
-      </c>
-      <c r="H32" s="130"/>
+        <v>86.820000000000007</v>
+      </c>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="3:14">
-      <c r="C33" s="113">
+      <c r="C33" s="90">
         <v>0.3</v>
       </c>
-      <c r="M33" s="113" t="e">
+      <c r="M33" s="90" t="e">
         <f>(M31-7)*3600</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="113" t="e">
+      <c r="N33" s="90" t="e">
         <f>M33+3600*7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="14:14">
-      <c r="N34" s="113" t="e">
+    <row r="34" spans="3:14">
+      <c r="N34" s="90" t="e">
         <f>M31*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="4:8">
-      <c r="D37" s="126" t="s">
+    <row r="37" spans="3:14">
+      <c r="D37" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="90">
         <v>168</v>
       </c>
-      <c r="H37" s="113">
+      <c r="H37" s="90">
         <f>E37/3</f>
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="126" t="s">
+    <row r="38" spans="3:14">
+      <c r="D38" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="90">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="113" t="s">
+    <row r="39" spans="3:14">
+      <c r="D39" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="90">
         <v>8.6</v>
       </c>
-      <c r="F39" s="113">
+      <c r="F39" s="90">
         <v>518</v>
       </c>
-      <c r="G39" s="126" t="s">
+      <c r="G39" s="102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
-      <c r="D40" s="113" t="s">
+    <row r="40" spans="3:14">
+      <c r="D40" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="90">
         <f>E39*60/E38</f>
         <v>16.125</v>
       </c>
-      <c r="F40" s="113">
+      <c r="F40" s="90">
         <f>F39*60/E38</f>
         <v>971.25</v>
       </c>
-      <c r="G40" s="126" t="s">
+      <c r="G40" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="130">
+      <c r="H40" s="106">
         <f>H37*60/E38</f>
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="126"/>
-    </row>
-    <row r="43" spans="4:10">
-      <c r="D43" s="126" t="s">
+    <row r="41" spans="3:14">
+      <c r="D41" s="102"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="D43" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="113">
+      <c r="E43" s="90">
         <v>360</v>
       </c>
-      <c r="H43" s="113">
+      <c r="H43" s="90">
         <f>E43/3</f>
         <v>120</v>
       </c>
-      <c r="I43" s="113">
+      <c r="I43" s="90">
         <v>4.7</v>
       </c>
-      <c r="J43" s="113">
+      <c r="J43" s="90">
         <f>I43/E44</f>
-        <v>0.783333333333333</v>
-      </c>
-    </row>
-    <row r="44" spans="4:14">
-      <c r="D44" s="126" t="s">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="D44" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="113">
+      <c r="E44" s="90">
         <v>6</v>
       </c>
-      <c r="M44" s="113">
-        <v>1.447</v>
-      </c>
-      <c r="N44" s="113">
+      <c r="M44" s="90">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="N44" s="90">
         <f>M44*6*10</f>
-        <v>86.82</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7">
-      <c r="D45" s="113" t="s">
+        <v>86.820000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="D45" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="113">
+      <c r="E45" s="90">
         <v>9</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="90">
         <v>540</v>
       </c>
-      <c r="G45" s="126" t="s">
+      <c r="G45" s="102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="4:8">
-      <c r="D46" s="113" t="s">
+    <row r="46" spans="3:14">
+      <c r="D46" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="113">
+      <c r="E46" s="90">
         <f>E45*60*E44/360</f>
         <v>9</v>
       </c>
-      <c r="F46" s="113">
+      <c r="F46" s="90">
         <f>F45*60*E44/360</f>
         <v>540</v>
       </c>
-      <c r="G46" s="126" t="s">
+      <c r="G46" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="130">
+      <c r="H46" s="106">
         <f>H43*60*E44/360</f>
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="113">
-        <v>1.447</v>
-      </c>
-      <c r="F49" s="113">
+    <row r="49" spans="4:9">
+      <c r="E49" s="90">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="F49" s="90">
         <f>E49*6*10</f>
-        <v>86.82</v>
-      </c>
-      <c r="G49" s="113" t="str">
+        <v>86.820000000000007</v>
+      </c>
+      <c r="G49" s="90" t="str">
         <f>DEC2HEX(F49)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="5:9">
-      <c r="E56" s="113" t="s">
+    <row r="56" spans="4:9">
+      <c r="E56" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="126" t="s">
+      <c r="F56" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="H56" s="113">
+      <c r="H56" s="90">
         <v>225.81</v>
       </c>
-      <c r="I56" s="113" t="e">
+      <c r="I56" s="90" t="e">
         <f>H56/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="126" t="s">
+    <row r="57" spans="4:9">
+      <c r="D57" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="E57" s="113">
+      <c r="E57" s="90">
         <v>434.21</v>
       </c>
-      <c r="F57" s="113" t="e">
+      <c r="F57" s="90" t="e">
         <f>E57/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="126" t="s">
+    <row r="58" spans="4:9">
+      <c r="D58" s="102" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="113" t="s">
+    <row r="59" spans="4:9">
+      <c r="E59" s="90" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="5:6">
-      <c r="E60" s="113">
+    <row r="60" spans="4:9">
+      <c r="E60" s="90">
         <v>25.66</v>
       </c>
-      <c r="F60" s="113">
+      <c r="F60" s="90">
         <f>E60*6*10</f>
-        <v>1539.6</v>
-      </c>
-    </row>
-    <row r="61" spans="8:9">
-      <c r="H61" s="113">
+        <v>1539.6000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9">
+      <c r="H61" s="90">
         <f>E57-H66</f>
-        <v>330.605</v>
-      </c>
-      <c r="I61" s="113" t="e">
+        <v>330.60499999999996</v>
+      </c>
+      <c r="I61" s="90" t="e">
         <f>H61/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="126" t="s">
+    <row r="62" spans="4:9">
+      <c r="D62" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="113">
+      <c r="E62" s="90">
         <v>434.21</v>
       </c>
-      <c r="F62" s="113" t="e">
+      <c r="F62" s="90" t="e">
         <f>E62/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="126" t="s">
+    <row r="63" spans="4:9">
+      <c r="D63" s="102" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="113" t="s">
+    <row r="64" spans="4:9">
+      <c r="E64" s="90" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="113">
+    <row r="65" spans="4:9">
+      <c r="E65" s="90">
         <v>154.34</v>
       </c>
-      <c r="F65" s="113">
+      <c r="F65" s="90">
         <f>E65*6*10</f>
         <v>9260.4</v>
       </c>
     </row>
-    <row r="66" spans="8:9">
-      <c r="H66" s="113">
+    <row r="66" spans="4:9">
+      <c r="H66" s="90">
         <v>103.605</v>
       </c>
-      <c r="I66" s="113" t="e">
+      <c r="I66" s="90" t="e">
         <f>H66/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
-      <c r="D67" s="126" t="s">
+    <row r="67" spans="4:9">
+      <c r="D67" s="102" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="68" spans="4:9">
-      <c r="D68" s="126" t="s">
+      <c r="D68" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="113">
+      <c r="E68" s="90">
         <f>227-207.21</f>
-        <v>19.79</v>
-      </c>
-      <c r="F68" s="113" t="e">
+        <v>19.789999999999992</v>
+      </c>
+      <c r="F68" s="90" t="e">
         <f>E68/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="113">
+      <c r="H68" s="90">
         <f>H66+E68</f>
         <v>123.395</v>
       </c>
-      <c r="I68" s="113" t="e">
+      <c r="I68" s="90" t="e">
         <f>H68/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="4:5">
-      <c r="D69" s="113" t="s">
+    <row r="69" spans="4:9">
+      <c r="D69" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="113" t="s">
+      <c r="E69" s="90" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="5:9">
-      <c r="E70" s="113">
+    <row r="70" spans="4:9">
+      <c r="E70" s="90">
         <v>25.66</v>
       </c>
-      <c r="F70" s="113">
+      <c r="F70" s="90">
         <f>E70*6*10</f>
-        <v>1539.6</v>
-      </c>
-      <c r="H70" s="113">
+        <v>1539.6000000000001</v>
+      </c>
+      <c r="H70" s="90">
         <v>90</v>
       </c>
-      <c r="I70" s="113">
+      <c r="I70" s="90">
         <f>H70*6*10</f>
         <v>5400</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
-      <c r="H73" s="113">
+    <row r="73" spans="4:9">
+      <c r="H73" s="90">
         <f>152.36*6*10</f>
         <v>9141.6</v>
       </c>
     </row>
-    <row r="74" spans="5:9">
-      <c r="E74" s="113">
+    <row r="74" spans="4:9">
+      <c r="E74" s="90">
         <f>227-20.69</f>
         <v>206.31</v>
       </c>
-      <c r="F74" s="113" t="e">
+      <c r="F74" s="90" t="e">
         <f>E74/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="113">
+      <c r="H74" s="90">
         <f>46.71+246.5</f>
-        <v>293.21</v>
-      </c>
-      <c r="I74" s="113" t="e">
+        <v>293.20999999999998</v>
+      </c>
+      <c r="I74" s="90" t="e">
         <f>H74/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="5:6">
-      <c r="E75" s="113">
+    <row r="75" spans="4:9">
+      <c r="E75" s="90">
         <f>H78</f>
-        <v>273.71</v>
-      </c>
-      <c r="F75" s="113" t="e">
+        <v>273.70999999999998</v>
+      </c>
+      <c r="F75" s="90" t="e">
         <f>E75/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="5:9">
-      <c r="E76" s="113">
+    <row r="76" spans="4:9">
+      <c r="E76" s="90">
         <f>H80</f>
-        <v>180.29</v>
-      </c>
-      <c r="F76" s="113" t="e">
+        <v>180.29000000000002</v>
+      </c>
+      <c r="F76" s="90" t="e">
         <f>E76/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="113">
+      <c r="H76" s="90">
         <f>246.5-46.71</f>
         <v>199.79</v>
       </c>
-      <c r="I76" s="113" t="e">
+      <c r="I76" s="90" t="e">
         <f>H76/E30*3600</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="8:8">
-      <c r="H78" s="113">
+    <row r="78" spans="4:9">
+      <c r="H78" s="90">
         <f>167.5-120.79+227</f>
-        <v>273.71</v>
-      </c>
-    </row>
-    <row r="79" spans="8:8">
-      <c r="H79" s="113">
+        <v>273.70999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9">
+      <c r="H79" s="90">
         <f>167.5-120.79</f>
-        <v>46.71</v>
-      </c>
-    </row>
-    <row r="80" spans="8:8">
-      <c r="H80" s="113">
+        <v>46.709999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9">
+      <c r="H80" s="90">
         <f>227-H79</f>
-        <v>180.29</v>
+        <v>180.29000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6921,436 +6423,432 @@
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A26:A29"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="59"/>
-    <col min="2" max="2" width="19.25" style="59" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="59" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="59" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="59" customWidth="1"/>
-    <col min="8" max="8" width="56.375" style="59" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="59" customWidth="1"/>
-    <col min="10" max="10" width="69.125" style="59" customWidth="1"/>
-    <col min="11" max="16383" width="9" style="59"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="56.375" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="123" customHeight="1" spans="1:10">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="123" customHeight="1">
+      <c r="A2" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="100"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1" spans="1:10">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="101"/>
-    </row>
-    <row r="4" s="56" customFormat="1" ht="15" spans="1:10">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65" t="s">
+      <c r="J3" s="148"/>
+    </row>
+    <row r="4" spans="1:10" s="42" customFormat="1" ht="15">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="65" t="s">
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" s="56" customFormat="1" ht="15" spans="1:10">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71" t="s">
+    <row r="5" spans="1:10" s="42" customFormat="1" ht="15">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="103"/>
-    </row>
-    <row r="6" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A6" s="74">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="81"/>
+    </row>
+    <row r="6" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="82" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" s="56" customFormat="1" ht="64" customHeight="1" spans="1:10">
-      <c r="A7" s="74">
+    <row r="7" spans="1:10" s="42" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A7" s="54">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="82" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" s="56" customFormat="1" ht="24" customHeight="1" spans="1:10">
-      <c r="A8" s="74">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="54">
         <v>3</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="74">
+    <row r="9" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A9" s="54">
         <v>4</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="82" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75" t="s">
+    <row r="10" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="J10" s="82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" s="56" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A11" s="74">
+    <row r="11" spans="1:10" s="42" customFormat="1" ht="28.5">
+      <c r="A11" s="54">
         <v>5</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A12" s="74">
+    <row r="12" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A12" s="54">
         <v>6</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="83" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A13" s="82">
+    <row r="13" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A13" s="62">
         <v>7</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="83" t="s">
+      <c r="J13" s="63" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" s="56" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A14" s="82"/>
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="84" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" s="56" customFormat="1" ht="15" spans="1:10">
-      <c r="A15" s="82">
+    <row r="15" spans="1:10" s="42" customFormat="1" ht="14.25">
+      <c r="A15" s="62">
         <v>8</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="89" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="J15" s="106" t="s">
+      <c r="J15" s="84" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" s="57" customFormat="1" ht="12" spans="1:1">
-      <c r="A16" s="91"/>
-    </row>
-    <row r="17" s="56" customFormat="1" ht="63.75" spans="1:10">
-      <c r="A17" s="92">
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="12.75">
+      <c r="A16" s="71"/>
+    </row>
+    <row r="17" spans="1:10" s="42" customFormat="1" ht="63.75">
+      <c r="A17" s="72">
         <v>9</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="107" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="86" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" s="56" customFormat="1" spans="1:9">
+    <row r="18" spans="1:10" s="42" customFormat="1">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>214</v>
@@ -7360,130 +6858,146 @@
       </c>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="96"/>
-      <c r="I18" s="109"/>
-    </row>
-    <row r="19" s="56" customFormat="1" spans="1:9">
+      <c r="F18" s="76"/>
+      <c r="I18" s="87"/>
+    </row>
+    <row r="19" spans="1:10" s="42" customFormat="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="96"/>
-      <c r="I19" s="109"/>
-    </row>
-    <row r="20" s="56" customFormat="1" ht="15" spans="1:9">
+      <c r="F19" s="76"/>
+      <c r="I19" s="87"/>
+    </row>
+    <row r="20" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="110"/>
-    </row>
-    <row r="21" s="56" customFormat="1" ht="15" spans="1:10">
+      <c r="B20" s="166" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="166" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="166" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="76">
+        <v>0</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="167" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="58" customFormat="1" ht="14.25" spans="1:8">
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="1:10" s="44" customFormat="1" ht="15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-    </row>
-    <row r="23" s="58" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="1:10" s="44" customFormat="1" ht="15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-    </row>
-    <row r="24" s="56" customFormat="1" ht="96" customHeight="1" spans="1:8">
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:10" s="42" customFormat="1" ht="96" customHeight="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
-    </row>
-    <row r="25" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
-    </row>
-    <row r="26" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
-    </row>
-    <row r="27" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-    </row>
-    <row r="28" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-    </row>
-    <row r="29" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-    </row>
-    <row r="30" s="56" customFormat="1" ht="14.25" spans="1:8">
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+    </row>
+    <row r="30" spans="1:10" s="42" customFormat="1" ht="15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
-    </row>
-    <row r="31" s="56" customFormat="1" ht="12"/>
-    <row r="32" s="56" customFormat="1" ht="12"/>
-    <row r="33" s="56" customFormat="1" ht="12"/>
-    <row r="34" s="56" customFormat="1" ht="12"/>
-    <row r="35" s="56" customFormat="1" ht="12"/>
-    <row r="36" s="56" customFormat="1" ht="12"/>
-    <row r="37" s="56" customFormat="1" ht="12"/>
-    <row r="38" s="56" customFormat="1" ht="12"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:10" s="42" customFormat="1" ht="12.75"/>
+    <row r="32" spans="1:10" s="42" customFormat="1" ht="12.75"/>
+    <row r="33" s="42" customFormat="1" ht="12.75"/>
+    <row r="34" s="42" customFormat="1" ht="12.75"/>
+    <row r="35" s="42" customFormat="1" ht="12.75"/>
+    <row r="36" s="42" customFormat="1" ht="12.75"/>
+    <row r="37" s="42" customFormat="1" ht="12.75"/>
+    <row r="38" s="42" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:J2"/>
@@ -7491,23 +7005,22 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="E4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
@@ -7517,322 +7030,321 @@
     <col min="8" max="8" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" spans="2:8">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:8" ht="18">
+      <c r="B1" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" ht="14.25" spans="2:8">
-      <c r="B2" s="24" t="s">
+      <c r="H1" s="153"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:8">
-      <c r="B3" s="24"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+    <row r="3" spans="1:8">
+      <c r="B3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" ht="36" spans="1:8">
-      <c r="A4" s="32" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25">
+      <c r="A4" s="156" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="26" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" ht="64" customHeight="1" spans="1:8">
-      <c r="A5" s="39"/>
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:8" ht="63.95" customHeight="1">
+      <c r="A5" s="157"/>
+      <c r="B5" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" ht="36" spans="1:8">
-      <c r="A6" s="39"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="157"/>
+      <c r="B6" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="29" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" ht="48.75" spans="1:8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:8" ht="51">
+      <c r="A7" s="158"/>
+      <c r="B7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="1:8">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:8" ht="38.25">
+      <c r="A8" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" ht="36" spans="1:8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:8" ht="38.25">
+      <c r="A9" s="157"/>
+      <c r="B9" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" ht="48" spans="1:8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:8" ht="51">
+      <c r="A10" s="157"/>
+      <c r="B10" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" ht="60.75" spans="1:8">
-      <c r="A11" s="39"/>
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:8" ht="63.75">
+      <c r="A11" s="157"/>
+      <c r="B11" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" ht="60" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="159" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" ht="36.75" spans="1:8">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:8" ht="38.25">
+      <c r="A13" s="160"/>
+      <c r="B13" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="41" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="3" width="20.875" customWidth="1"/>
@@ -7843,140 +7355,140 @@
     <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="2:8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18">
+      <c r="B1" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="H1" s="162"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="164"/>
+      <c r="F2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" ht="36.75" spans="1:8">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="38.25">
+      <c r="A3" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" ht="36.75" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:8" ht="38.25">
+      <c r="A4" s="165"/>
+      <c r="B4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" ht="36.75" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:8" ht="38.25">
+      <c r="A5" s="165"/>
+      <c r="B5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" ht="36.75" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="160"/>
+      <c r="B6" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>261</v>
       </c>
@@ -7987,7 +7499,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>264</v>
       </c>
@@ -7995,14 +7507,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" ht="94.5" spans="2:6">
+    <row r="12" spans="1:8" ht="94.5">
       <c r="B12" t="s">
         <v>266</v>
       </c>
       <c r="C12" t="s">
         <v>267</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8013,8 +7525,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>